--- a/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
+++ b/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindesgvd\Desktop\Projects\portfolio-optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindesgvd\Desktop\Projects\portfolio-optimization\tno\quantum\problems\portfolio_optimization\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C234D26-6F16-4A6D-AF08-52A68EF5C9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43912144-29C9-4B2B-A7ED-A3111D6E5B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>out_2021</t>
   </si>
@@ -207,14 +207,18 @@
   </si>
   <si>
     <t>Packaging &amp; Logistics COUNTRY 4</t>
+  </si>
+  <si>
+    <t>emis_intens_2030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -245,10 +249,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,22 +541,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:X67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF19" sqref="AF19"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="6" width="35.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -564,13 +573,16 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -583,21 +595,25 @@
       <c r="D2">
         <v>19</v>
       </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
+      <c r="E2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -610,21 +626,25 @@
       <c r="D3">
         <v>528</v>
       </c>
-      <c r="E3" s="1">
-        <v>80</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>0.6080000000000001</v>
+      </c>
+      <c r="G3" s="1">
         <v>70</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>40</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J3" s="4"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -637,21 +657,25 @@
       <c r="D4">
         <v>28</v>
       </c>
-      <c r="E4" s="1">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -664,21 +688,25 @@
       <c r="D5">
         <v>1410</v>
       </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F5">
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J5" s="4"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -691,20 +719,24 @@
       <c r="D6">
         <v>74</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F6">
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -717,20 +749,24 @@
       <c r="D7">
         <v>397</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="F7" s="1">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>20</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J7" s="4"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -743,20 +779,24 @@
       <c r="D8">
         <v>14</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J8" s="4"/>
+      <c r="K8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -769,20 +809,24 @@
       <c r="D9">
         <v>1353</v>
       </c>
-      <c r="E9" s="1">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F9">
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="G9" s="1">
         <v>150</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>80</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J9" s="4"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -795,20 +839,24 @@
       <c r="D10">
         <v>19</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J10" s="4"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -821,20 +869,24 @@
       <c r="D11">
         <v>3045</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.38</v>
+      </c>
+      <c r="G11" s="1">
         <v>50</v>
       </c>
-      <c r="F11" s="1">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>30</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J11" s="4"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -847,20 +899,24 @@
       <c r="D12">
         <v>110</v>
       </c>
-      <c r="E12" s="1">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>40</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -873,20 +929,24 @@
       <c r="D13">
         <v>1705</v>
       </c>
-      <c r="E13" s="1">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F13">
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="G13" s="1">
         <v>60</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -899,20 +959,24 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J14" s="4"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -925,20 +989,24 @@
       <c r="D15">
         <v>35</v>
       </c>
-      <c r="E15" s="1">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1">
-        <v>5</v>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -951,20 +1019,24 @@
       <c r="D16">
         <v>1693</v>
       </c>
-      <c r="E16" s="1">
-        <v>60</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E16" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F16">
+        <v>0.45599999999999996</v>
+      </c>
+      <c r="G16" s="1">
         <v>30</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>40</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -977,20 +1049,24 @@
       <c r="D17">
         <v>18</v>
       </c>
-      <c r="E17" s="1">
-        <v>80</v>
-      </c>
-      <c r="F17" s="1">
-        <v>10</v>
+      <c r="E17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="F17">
+        <v>0.6080000000000001</v>
       </c>
       <c r="G17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <v>10</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1003,20 +1079,24 @@
       <c r="D18">
         <v>1104</v>
       </c>
-      <c r="E18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F18">
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="G18" s="1">
         <v>20</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>30</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1029,20 +1109,24 @@
       <c r="D19">
         <v>19</v>
       </c>
-      <c r="E19" s="1">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F19">
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="G19" s="1">
         <v>50</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>70</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J19" s="4"/>
+      <c r="K19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1055,20 +1139,24 @@
       <c r="D20">
         <v>1260</v>
       </c>
-      <c r="E20" s="1">
-        <v>40</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="E20" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F20">
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="G20" s="1">
         <v>100</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>80</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J20" s="4"/>
+      <c r="K20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1081,20 +1169,24 @@
       <c r="D21">
         <v>96</v>
       </c>
-      <c r="E21" s="1">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1">
-        <v>10</v>
+      <c r="E21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F21">
+        <v>7.6000000000000012E-2</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1107,20 +1199,24 @@
       <c r="D22">
         <v>531</v>
       </c>
-      <c r="E22" s="1">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="E22" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F22">
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="G22" s="1">
         <v>20</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>80</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J22" s="4"/>
+      <c r="K22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1133,21 +1229,25 @@
       <c r="D23">
         <v>295</v>
       </c>
-      <c r="E23" s="1">
-        <v>10</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="E23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F23">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G23" s="1">
         <v>30</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>15</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="P23" s="2"/>
-      <c r="U23" s="2"/>
-    </row>
-    <row r="24" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J23" s="4"/>
+      <c r="K23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="Q23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1160,19 +1260,23 @@
       <c r="D24">
         <v>1752</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.76</v>
+      </c>
+      <c r="G24" s="1">
+        <v>150</v>
+      </c>
+      <c r="H24" s="1">
         <v>100</v>
       </c>
-      <c r="F24" s="1">
-        <v>150</v>
-      </c>
-      <c r="G24" s="1">
-        <v>100</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J24" s="4"/>
+      <c r="K24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1185,21 +1289,25 @@
       <c r="D25">
         <v>455</v>
       </c>
-      <c r="E25" s="1">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="E25" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F25">
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="G25" s="1">
         <v>50</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>40</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J25" s="4"/>
+      <c r="K25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1212,19 +1320,23 @@
       <c r="D26">
         <v>1578</v>
       </c>
-      <c r="E26" s="1">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.38</v>
+      </c>
+      <c r="G26" s="1">
         <v>70</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>100</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J26" s="4"/>
+      <c r="K26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1237,19 +1349,23 @@
       <c r="D27">
         <v>176</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F27">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G27" s="1">
         <v>10</v>
       </c>
-      <c r="F27" s="1">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>5</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J27" s="4"/>
+      <c r="K27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1262,19 +1378,23 @@
       <c r="D28">
         <v>219</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F28">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G28" s="1">
         <v>10</v>
       </c>
-      <c r="F28" s="1">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>5</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J28" s="4"/>
+      <c r="K28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1287,21 +1407,25 @@
       <c r="D29">
         <v>2117</v>
       </c>
-      <c r="E29" s="1">
-        <v>220.00000000000003</v>
-      </c>
-      <c r="F29" s="1">
+      <c r="E29" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F29">
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="G29" s="1">
         <v>30</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>40</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="R29" s="2"/>
-      <c r="W29" s="2"/>
-    </row>
-    <row r="30" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J29" s="4"/>
+      <c r="K29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="S29" s="2"/>
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1314,19 +1438,23 @@
       <c r="D30">
         <v>227</v>
       </c>
-      <c r="E30" s="1">
-        <v>70</v>
-      </c>
-      <c r="F30" s="1">
+      <c r="E30" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="F30">
+        <v>0.53199999999999992</v>
+      </c>
+      <c r="G30" s="1">
         <v>60</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>40</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J30" s="4"/>
+      <c r="K30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1339,20 +1467,24 @@
       <c r="D31">
         <v>881</v>
       </c>
-      <c r="E31" s="1">
-        <v>5</v>
-      </c>
-      <c r="F31" s="1">
+      <c r="E31" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F31">
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="G31" s="1">
         <v>180</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>200</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J31" s="4"/>
+      <c r="K31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1365,20 +1497,24 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F32">
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
         <v>5</v>
       </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1">
-        <v>5</v>
-      </c>
-      <c r="J32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J32" s="4"/>
+      <c r="K32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1391,20 +1527,24 @@
       <c r="D33">
         <v>1693</v>
       </c>
-      <c r="E33" s="1">
-        <v>50</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="E33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F33">
+        <v>0.38</v>
+      </c>
+      <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J33" s="4"/>
+      <c r="K33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1417,20 +1557,24 @@
       <c r="D34">
         <v>473</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F34">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>20</v>
+      </c>
+      <c r="H34" s="1">
         <v>10</v>
       </c>
-      <c r="F34" s="1">
-        <v>20</v>
-      </c>
-      <c r="G34" s="1">
-        <v>10</v>
-      </c>
-      <c r="J34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="P34" s="1"/>
-    </row>
-    <row r="35" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J34" s="4"/>
+      <c r="K34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1443,20 +1587,24 @@
       <c r="D35">
         <v>1390</v>
       </c>
-      <c r="E35" s="1">
-        <v>30</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="E35" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F35">
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="G35" s="1">
         <v>50</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>80</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1469,20 +1617,24 @@
       <c r="D36">
         <v>24</v>
       </c>
-      <c r="E36" s="1">
-        <v>10</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="E36" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G36" s="1">
         <v>1</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>3</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J36" s="4"/>
+      <c r="K36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1495,21 +1647,25 @@
       <c r="D37">
         <v>1302</v>
       </c>
-      <c r="E37" s="1">
-        <v>150</v>
-      </c>
-      <c r="F37" s="1">
+      <c r="E37" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F37">
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="G37" s="1">
         <v>40</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="W37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J37" s="4"/>
+      <c r="K37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1522,20 +1678,24 @@
       <c r="D38">
         <v>317</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F38">
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="G38" s="1">
         <v>20</v>
       </c>
-      <c r="F38" s="1">
-        <v>20</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>40</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J38" s="4"/>
+      <c r="K38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1548,20 +1708,24 @@
       <c r="D39">
         <v>2209</v>
       </c>
-      <c r="E39" s="1">
-        <v>40</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E39" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F39">
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="G39" s="1">
         <v>50</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>60</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J39" s="4"/>
+      <c r="K39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1574,20 +1738,24 @@
       <c r="D40">
         <v>168</v>
       </c>
-      <c r="E40" s="1">
-        <v>10</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="E40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F40">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G40" s="1">
         <v>30</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>20</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J40" s="4"/>
+      <c r="K40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1600,20 +1768,24 @@
       <c r="D41">
         <v>106</v>
       </c>
-      <c r="E41" s="1">
-        <v>10</v>
-      </c>
-      <c r="F41" s="1">
+      <c r="E41" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F41">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>5</v>
       </c>
-      <c r="J41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J41" s="4"/>
+      <c r="K41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1626,20 +1798,24 @@
       <c r="D42">
         <v>1015</v>
       </c>
-      <c r="E42" s="1">
-        <v>180</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="F42">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="G42" s="1">
         <v>110</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>40</v>
       </c>
-      <c r="J42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J42" s="4"/>
+      <c r="K42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1652,20 +1828,24 @@
       <c r="D43">
         <v>685</v>
       </c>
-      <c r="E43" s="1">
-        <v>50</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="E43" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>0.38</v>
+      </c>
+      <c r="G43" s="1">
         <v>20</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>10</v>
       </c>
-      <c r="J43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J43" s="4"/>
+      <c r="K43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1678,20 +1858,24 @@
       <c r="D44">
         <v>2</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F44">
+        <v>3.8000000000000006E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>10</v>
+      </c>
+      <c r="H44" s="1">
         <v>5</v>
       </c>
-      <c r="F44" s="1">
-        <v>10</v>
-      </c>
-      <c r="G44" s="1">
-        <v>5</v>
-      </c>
-      <c r="J44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J44" s="4"/>
+      <c r="K44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1704,20 +1888,24 @@
       <c r="D45">
         <v>473</v>
       </c>
-      <c r="E45" s="1">
-        <v>5</v>
-      </c>
-      <c r="F45" s="1">
-        <v>5</v>
+      <c r="E45" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F45">
+        <v>3.8000000000000006E-2</v>
       </c>
       <c r="G45" s="1">
         <v>5</v>
       </c>
-      <c r="J45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1730,20 +1918,24 @@
       <c r="D46">
         <v>51</v>
       </c>
-      <c r="E46" s="1">
-        <v>40</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="E46" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F46">
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="G46" s="1">
         <v>5</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>10</v>
       </c>
-      <c r="J46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J46" s="4"/>
+      <c r="K46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1756,20 +1948,24 @@
       <c r="D47">
         <v>26</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F47">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1">
         <v>10</v>
       </c>
-      <c r="F47" s="1">
-        <v>5</v>
-      </c>
-      <c r="G47" s="1">
-        <v>10</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J47" s="4"/>
+      <c r="K47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1782,20 +1978,24 @@
       <c r="D48">
         <v>1639</v>
       </c>
-      <c r="E48" s="1">
-        <v>30</v>
-      </c>
-      <c r="F48" s="1">
+      <c r="E48" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F48">
+        <v>0.22799999999999998</v>
+      </c>
+      <c r="G48" s="1">
         <v>130</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>80</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:16" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J48" s="4"/>
+      <c r="K48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1808,20 +2008,24 @@
       <c r="D49">
         <v>247</v>
       </c>
-      <c r="E49" s="1">
-        <v>10</v>
-      </c>
-      <c r="F49" s="1">
+      <c r="E49" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F49">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G49" s="1">
         <v>80</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>50</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:16" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J49" s="4"/>
+      <c r="K49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1834,20 +2038,24 @@
       <c r="D50">
         <v>118</v>
       </c>
-      <c r="E50" s="1">
-        <v>229.99999999999997</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="E50" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F50">
+        <v>1.7479999999999998</v>
+      </c>
+      <c r="G50" s="1">
         <v>20</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>30</v>
       </c>
-      <c r="J50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:16" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="J50" s="4"/>
+      <c r="K50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1860,20 +2068,24 @@
       <c r="D51">
         <v>5</v>
       </c>
-      <c r="E51" s="1">
-        <v>20</v>
-      </c>
-      <c r="F51" s="1">
+      <c r="E51" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="F51">
+        <v>0.15200000000000002</v>
+      </c>
+      <c r="G51" s="1">
         <v>10</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>40</v>
       </c>
-      <c r="J51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J51" s="4"/>
+      <c r="K51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1886,20 +2098,24 @@
       <c r="D52">
         <v>1376</v>
       </c>
-      <c r="E52" s="1">
-        <v>40</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="E52" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="F52">
+        <v>0.30400000000000005</v>
+      </c>
+      <c r="G52" s="1">
         <v>20</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>30</v>
       </c>
-      <c r="J52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J52" s="4"/>
+      <c r="K52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -1912,90 +2128,108 @@
       <c r="D53">
         <v>776</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F53">
+        <v>7.6000000000000012E-2</v>
+      </c>
+      <c r="G53" s="1">
         <v>10</v>
       </c>
-      <c r="F53" s="1">
-        <v>10</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>5</v>
       </c>
-      <c r="J53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J53" s="4"/>
+      <c r="K53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H56" s="1"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H62" s="1"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2004,15 +2238,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C4ABA94203F5748B109EBB7A2B66A24" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14cb3232c46c11352faa6e192ede145">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="606bd0ba-55e6-434f-bf07-749f78accee2" xmlns:ns4="21f765a5-c597-45a3-897b-84f427d866ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84b2d4089f6effa903dbee879072b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="606bd0ba-55e6-434f-bf07-749f78accee2"/>
@@ -2241,6 +2466,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2248,14 +2482,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0865417-1B09-4DF2-BA06-A69EF24AD5DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2274,6 +2500,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2163975D-6C90-4D2B-867A-E7435F56DE12}">
   <ds:schemaRefs>

--- a/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
+++ b/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lindesgvd\Desktop\Projects\portfolio-optimization\tno\quantum\problems\portfolio_optimization\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wezemanrs\Desktop\projects\Quantum-projects\QuantumToolbox\PROBLEMS\portfolio-optimization\tno\quantum\problems\portfolio_optimization\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43912144-29C9-4B2B-A7ED-A3111D6E5B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F09AAD-0A9B-44EB-8BCE-AB295289DC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="360" windowWidth="20955" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,25 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
-  <si>
-    <t>out_2021</t>
-  </si>
-  <si>
-    <t>out_2030_min</t>
-  </si>
-  <si>
-    <t>out_2030_max</t>
-  </si>
-  <si>
-    <t>income_2021</t>
-  </si>
-  <si>
-    <t>regcap_2021</t>
-  </si>
-  <si>
-    <t>emis_intens_2021</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>AP - Processing COUNTRY 1</t>
   </si>
@@ -209,7 +191,28 @@
     <t>Packaging &amp; Logistics COUNTRY 4</t>
   </si>
   <si>
-    <t>emis_intens_2030</t>
+    <t>out_now</t>
+  </si>
+  <si>
+    <t>out_future_min</t>
+  </si>
+  <si>
+    <t>out_future_max</t>
+  </si>
+  <si>
+    <t>emis_intens_now</t>
+  </si>
+  <si>
+    <t>emis_intens_future</t>
+  </si>
+  <si>
+    <t>income_now</t>
+  </si>
+  <si>
+    <t>regcap_now</t>
+  </si>
+  <si>
+    <t>asset</t>
   </si>
 </sst>
 </file>
@@ -218,7 +221,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -254,7 +257,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,15 +546,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="6" width="35.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
@@ -560,31 +565,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.199999999999999</v>
@@ -615,7 +623,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>600</v>
@@ -646,7 +654,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
@@ -677,7 +685,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>800</v>
@@ -708,7 +716,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
@@ -738,7 +746,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
@@ -768,7 +776,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
@@ -798,7 +806,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>500</v>
@@ -828,7 +836,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>9.9</v>
@@ -858,7 +866,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>1250</v>
@@ -888,7 +896,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>70</v>
@@ -918,7 +926,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>700</v>
@@ -948,7 +956,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -978,7 +986,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
@@ -1008,7 +1016,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>1200</v>
@@ -1038,7 +1046,7 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
@@ -1068,7 +1076,7 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>800</v>
@@ -1098,7 +1106,7 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>9.6</v>
@@ -1128,7 +1136,7 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>1000</v>
@@ -1158,7 +1166,7 @@
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
@@ -1188,7 +1196,7 @@
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>300</v>
@@ -1218,7 +1226,7 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>150</v>
@@ -1249,7 +1257,7 @@
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>800</v>
@@ -1278,7 +1286,7 @@
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>200</v>
@@ -1309,7 +1317,7 @@
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>1000</v>
@@ -1338,7 +1346,7 @@
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>100</v>
@@ -1367,7 +1375,7 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>100</v>
@@ -1396,7 +1404,7 @@
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>1500</v>
@@ -1427,7 +1435,7 @@
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>230</v>
@@ -1456,7 +1464,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>500</v>
@@ -1486,7 +1494,7 @@
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1516,7 +1524,7 @@
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>1200</v>
@@ -1546,7 +1554,7 @@
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>300</v>
@@ -1576,7 +1584,7 @@
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>700</v>
@@ -1606,7 +1614,7 @@
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>20</v>
@@ -1636,7 +1644,7 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>900</v>
@@ -1667,7 +1675,7 @@
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>500</v>
@@ -1697,7 +1705,7 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>1400</v>
@@ -1727,7 +1735,7 @@
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>100</v>
@@ -1757,7 +1765,7 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>60</v>
@@ -1787,7 +1795,7 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>500</v>
@@ -1817,7 +1825,7 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>700</v>
@@ -1847,7 +1855,7 @@
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -1877,7 +1885,7 @@
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>300</v>
@@ -1907,7 +1915,7 @@
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>50</v>
@@ -1937,7 +1945,7 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>20</v>
@@ -1967,7 +1975,7 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>900</v>
@@ -1997,7 +2005,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>140</v>
@@ -2027,7 +2035,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>60</v>
@@ -2057,7 +2065,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>10</v>
@@ -2087,7 +2095,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>700</v>
@@ -2117,7 +2125,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>500</v>
@@ -2238,6 +2246,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C4ABA94203F5748B109EBB7A2B66A24" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14cb3232c46c11352faa6e192ede145">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="606bd0ba-55e6-434f-bf07-749f78accee2" xmlns:ns4="21f765a5-c597-45a3-897b-84f427d866ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84b2d4089f6effa903dbee879072b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="606bd0ba-55e6-434f-bf07-749f78accee2"/>
@@ -2466,15 +2483,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2482,6 +2490,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0865417-1B09-4DF2-BA06-A69EF24AD5DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2500,14 +2516,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2163975D-6C90-4D2B-867A-E7435F56DE12}">
   <ds:schemaRefs>

--- a/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
+++ b/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wezemanrs\Desktop\projects\Quantum-projects\QuantumToolbox\PROBLEMS\portfolio-optimization\tno\quantum\problems\portfolio_optimization\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F09AAD-0A9B-44EB-8BCE-AB295289DC82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A1739E-A106-474F-BD5E-9D016B5FA52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="360" windowWidth="20955" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="43200" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,15 +191,6 @@
     <t>Packaging &amp; Logistics COUNTRY 4</t>
   </si>
   <si>
-    <t>out_now</t>
-  </si>
-  <si>
-    <t>out_future_min</t>
-  </si>
-  <si>
-    <t>out_future_max</t>
-  </si>
-  <si>
     <t>emis_intens_now</t>
   </si>
   <si>
@@ -213,6 +204,15 @@
   </si>
   <si>
     <t>asset</t>
+  </si>
+  <si>
+    <t>outstanding_now</t>
+  </si>
+  <si>
+    <t>outstanding_future_min</t>
+  </si>
+  <si>
+    <t>outstanding_future_max</t>
   </si>
 </sst>
 </file>
@@ -548,15 +548,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="35.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
@@ -566,28 +566,28 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">

--- a/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
+++ b/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wezemanrs\Desktop\projects\Quantum-projects\QuantumToolbox\PROBLEMS\portfolio-optimization\tno\quantum\problems\portfolio_optimization\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A1739E-A106-474F-BD5E-9D016B5FA52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E184A559-83F1-40FE-BA8B-B985B8006C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="43200" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -209,10 +209,10 @@
     <t>outstanding_now</t>
   </si>
   <si>
-    <t>outstanding_future_min</t>
-  </si>
-  <si>
-    <t>outstanding_future_max</t>
+    <t>min_outstanding_future</t>
+  </si>
+  <si>
+    <t>max_outstanding_future</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,15 +2246,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C4ABA94203F5748B109EBB7A2B66A24" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14cb3232c46c11352faa6e192ede145">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="606bd0ba-55e6-434f-bf07-749f78accee2" xmlns:ns4="21f765a5-c597-45a3-897b-84f427d866ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84b2d4089f6effa903dbee879072b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="606bd0ba-55e6-434f-bf07-749f78accee2"/>
@@ -2483,6 +2474,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2490,14 +2490,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0865417-1B09-4DF2-BA06-A69EF24AD5DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2516,6 +2508,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2163975D-6C90-4D2B-867A-E7435F56DE12}">
   <ds:schemaRefs>

--- a/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
+++ b/tno/quantum/problems/portfolio_optimization/datasets/rabodata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wezemanrs\Desktop\projects\Quantum-projects\QuantumToolbox\PROBLEMS\portfolio-optimization\tno\quantum\problems\portfolio_optimization\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E184A559-83F1-40FE-BA8B-B985B8006C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB0D341-989D-42F3-9BC3-525701FD90BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="43200" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28035" yWindow="3150" windowWidth="19185" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,162 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
-    <t>AP - Processing COUNTRY 1</t>
-  </si>
-  <si>
-    <t>AP - Beef COUNTRY 1</t>
-  </si>
-  <si>
-    <t>AP - Pork COUNTRY 1</t>
-  </si>
-  <si>
-    <t>AP - Poultry COUNTRY 1</t>
-  </si>
-  <si>
-    <t>AP - Seafood COUNTRY 1</t>
-  </si>
-  <si>
-    <t>AP - Sheep COUNTRY 1</t>
-  </si>
-  <si>
-    <t>Beverages COUNTRY 1</t>
-  </si>
-  <si>
-    <t>Commodities COUNTRY 1</t>
-  </si>
-  <si>
-    <t>Consumer Foods COUNTRY 1</t>
-  </si>
-  <si>
-    <t>Dairy COUNTRY 1</t>
-  </si>
-  <si>
-    <t>Farm Inputs COUNTRY 1</t>
-  </si>
-  <si>
-    <t>Fresh Produce COUNTRY 1</t>
-  </si>
-  <si>
-    <t>Packaging &amp; Logistics COUNTRY 1</t>
-  </si>
-  <si>
-    <t>AP - Processing COUNTRY 2</t>
-  </si>
-  <si>
-    <t>AP - Beef COUNTRY 2</t>
-  </si>
-  <si>
-    <t>AP - Pork COUNTRY 2</t>
-  </si>
-  <si>
-    <t>AP - Poultry COUNTRY 2</t>
-  </si>
-  <si>
-    <t>AP - Seafood COUNTRY 2</t>
-  </si>
-  <si>
-    <t>AP - Sheep COUNTRY 2</t>
-  </si>
-  <si>
-    <t>Beverages COUNTRY 2</t>
-  </si>
-  <si>
-    <t>Commodities COUNTRY 2</t>
-  </si>
-  <si>
-    <t>Consumer Foods COUNTRY 2</t>
-  </si>
-  <si>
-    <t>Dairy COUNTRY 2</t>
-  </si>
-  <si>
-    <t>Farm Inputs COUNTRY 2</t>
-  </si>
-  <si>
-    <t>Fresh Produce COUNTRY 2</t>
-  </si>
-  <si>
-    <t>Packaging &amp; Logistics COUNTRY 2</t>
-  </si>
-  <si>
-    <t>AP - Processing COUNTRY 3</t>
-  </si>
-  <si>
-    <t>AP - Beef COUNTRY 3</t>
-  </si>
-  <si>
-    <t>AP - Pork COUNTRY 3</t>
-  </si>
-  <si>
-    <t>AP - Poultry COUNTRY 3</t>
-  </si>
-  <si>
-    <t>AP - Seafood COUNTRY 3</t>
-  </si>
-  <si>
-    <t>AP - Sheep COUNTRY 3</t>
-  </si>
-  <si>
-    <t>Beverages COUNTRY 3</t>
-  </si>
-  <si>
-    <t>Commodities COUNTRY 3</t>
-  </si>
-  <si>
-    <t>Consumer Foods COUNTRY 3</t>
-  </si>
-  <si>
-    <t>Dairy COUNTRY 3</t>
-  </si>
-  <si>
-    <t>Farm Inputs COUNTRY 3</t>
-  </si>
-  <si>
-    <t>Fresh Produce COUNTRY 3</t>
-  </si>
-  <si>
-    <t>Packaging &amp; Logistics COUNTRY 3</t>
-  </si>
-  <si>
-    <t>AP - Processing COUNTRY 4</t>
-  </si>
-  <si>
-    <t>AP - Beef COUNTRY 4</t>
-  </si>
-  <si>
-    <t>AP - Pork COUNTRY 4</t>
-  </si>
-  <si>
-    <t>AP - Poultry COUNTRY 4</t>
-  </si>
-  <si>
-    <t>AP - Seafood COUNTRY 4</t>
-  </si>
-  <si>
-    <t>AP - Sheep COUNTRY 4</t>
-  </si>
-  <si>
-    <t>Beverages COUNTRY 4</t>
-  </si>
-  <si>
-    <t>Commodities COUNTRY 4</t>
-  </si>
-  <si>
-    <t>Consumer Foods COUNTRY 4</t>
-  </si>
-  <si>
-    <t>Dairy COUNTRY 4</t>
-  </si>
-  <si>
-    <t>Farm Inputs COUNTRY 4</t>
-  </si>
-  <si>
-    <t>Fresh Produce COUNTRY 4</t>
-  </si>
-  <si>
-    <t>Packaging &amp; Logistics COUNTRY 4</t>
-  </si>
-  <si>
     <t>emis_intens_now</t>
   </si>
   <si>
@@ -213,6 +57,162 @@
   </si>
   <si>
     <t>max_outstanding_future</t>
+  </si>
+  <si>
+    <t>Sector 1 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 2 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 3 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 1 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 2 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 3 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 1 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 2 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 3 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 1 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 2 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 3 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 4 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 5 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 6 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 7 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 8 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 9 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 10 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 11 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 12 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 13 - Country 1</t>
+  </si>
+  <si>
+    <t>Sector 4 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 5 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 6 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 7 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 8 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 9 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 10 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 11 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 12 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 13 - Country 2</t>
+  </si>
+  <si>
+    <t>Sector 4 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 5 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 6 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 7 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 8 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 9 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 10 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 11 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 12 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 13 - Country 3</t>
+  </si>
+  <si>
+    <t>Sector 4 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 5 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 6 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 7 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 8 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 9 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 10 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 11 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 12 - Country 4</t>
+  </si>
+  <si>
+    <t>Sector 13 - Country 4</t>
   </si>
 </sst>
 </file>
@@ -223,10 +223,16 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,51 +554,51 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="35.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="35.81640625" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>10.199999999999999</v>
@@ -621,9 +627,9 @@
       <c r="Q2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>600</v>
@@ -652,9 +658,9 @@
       <c r="Q3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
@@ -683,9 +689,9 @@
       <c r="Q4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1">
         <v>800</v>
@@ -714,9 +720,9 @@
       <c r="Q5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
@@ -744,9 +750,9 @@
       <c r="M6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>200</v>
@@ -774,9 +780,9 @@
       <c r="M7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
@@ -804,9 +810,9 @@
       <c r="M8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>500</v>
@@ -834,9 +840,9 @@
       <c r="M9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>9.9</v>
@@ -864,9 +870,9 @@
       <c r="M10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1">
         <v>1250</v>
@@ -894,9 +900,9 @@
       <c r="M11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>70</v>
@@ -924,9 +930,9 @@
       <c r="M12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <v>700</v>
@@ -954,9 +960,9 @@
       <c r="M13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -984,9 +990,9 @@
       <c r="M14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>30</v>
@@ -1014,9 +1020,9 @@
       <c r="M15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1">
         <v>1200</v>
@@ -1044,9 +1050,9 @@
       <c r="M16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="1">
         <v>10</v>
@@ -1074,9 +1080,9 @@
       <c r="M17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
         <v>800</v>
@@ -1104,9 +1110,9 @@
       <c r="M18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
         <v>9.6</v>
@@ -1134,9 +1140,9 @@
       <c r="M19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
         <v>1000</v>
@@ -1164,9 +1170,9 @@
       <c r="M20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
@@ -1194,9 +1200,9 @@
       <c r="M21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
         <v>300</v>
@@ -1224,9 +1230,9 @@
       <c r="M22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
         <v>150</v>
@@ -1255,9 +1261,9 @@
       <c r="Q23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>800</v>
@@ -1284,9 +1290,9 @@
       <c r="K24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
         <v>200</v>
@@ -1315,9 +1321,9 @@
       <c r="Q25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>1000</v>
@@ -1344,9 +1350,9 @@
       <c r="K26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1">
         <v>100</v>
@@ -1373,9 +1379,9 @@
       <c r="K27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1">
         <v>100</v>
@@ -1402,9 +1408,9 @@
       <c r="K28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1">
         <v>1500</v>
@@ -1433,9 +1439,9 @@
       <c r="S29" s="2"/>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1">
         <v>230</v>
@@ -1462,9 +1468,9 @@
       <c r="K30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1">
         <v>500</v>
@@ -1492,9 +1498,9 @@
       <c r="M31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -1522,9 +1528,9 @@
       <c r="M32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <v>1200</v>
@@ -1552,9 +1558,9 @@
       <c r="M33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1">
         <v>300</v>
@@ -1582,9 +1588,9 @@
       <c r="M34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1">
         <v>700</v>
@@ -1612,9 +1618,9 @@
       <c r="M35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1">
         <v>20</v>
@@ -1642,9 +1648,9 @@
       <c r="M36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1">
         <v>900</v>
@@ -1673,9 +1679,9 @@
       <c r="Q37" s="1"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1">
         <v>500</v>
@@ -1703,9 +1709,9 @@
       <c r="M38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1">
         <v>1400</v>
@@ -1733,9 +1739,9 @@
       <c r="M39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B40" s="1">
         <v>100</v>
@@ -1763,9 +1769,9 @@
       <c r="M40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1">
         <v>60</v>
@@ -1793,9 +1799,9 @@
       <c r="M41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1">
         <v>500</v>
@@ -1823,9 +1829,9 @@
       <c r="M42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1">
         <v>700</v>
@@ -1853,9 +1859,9 @@
       <c r="M43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -1883,9 +1889,9 @@
       <c r="M44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1">
         <v>300</v>
@@ -1913,9 +1919,9 @@
       <c r="M45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1">
         <v>50</v>
@@ -1943,9 +1949,9 @@
       <c r="M46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1">
         <v>20</v>
@@ -1973,9 +1979,9 @@
       <c r="M47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1">
         <v>900</v>
@@ -2003,9 +2009,9 @@
       <c r="M48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1">
         <v>140</v>
@@ -2033,9 +2039,9 @@
       <c r="M49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1">
         <v>60</v>
@@ -2063,9 +2069,9 @@
       <c r="M50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1">
         <v>10</v>
@@ -2093,9 +2099,9 @@
       <c r="M51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1">
         <v>700</v>
@@ -2123,9 +2129,9 @@
       <c r="M52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1">
         <v>500</v>
@@ -2153,99 +2159,115 @@
       <c r="M53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C4ABA94203F5748B109EBB7A2B66A24" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14cb3232c46c11352faa6e192ede145">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="606bd0ba-55e6-434f-bf07-749f78accee2" xmlns:ns4="21f765a5-c597-45a3-897b-84f427d866ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84b2d4089f6effa903dbee879072b2e8" ns3:_="" ns4:_="">
     <xsd:import namespace="606bd0ba-55e6-434f-bf07-749f78accee2"/>
@@ -2474,22 +2496,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2163975D-6C90-4D2B-867A-E7435F56DE12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0865417-1B09-4DF2-BA06-A69EF24AD5DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2506,21 +2530,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A1D81-B79C-470C-B259-EF659D59E72C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2163975D-6C90-4D2B-867A-E7435F56DE12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>